--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-02_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-02_valid.xlsx
@@ -31511,7 +31511,7 @@
         <v>0.7234567901234568</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -31625,7 +31625,7 @@
         <v>0</v>
       </c>
       <c r="AV96">
-        <v>0</v>
+        <v>50.42016806722689</v>
       </c>
       <c r="AW96">
         <v>0</v>
@@ -31739,7 +31739,7 @@
         <v>0</v>
       </c>
       <c r="CH96">
-        <v>0</v>
+        <v>0.6722689075630252</v>
       </c>
       <c r="CI96">
         <v>0</v>
@@ -31796,7 +31796,7 @@
         <v>0</v>
       </c>
       <c r="DA96">
-        <v>0.1933176968858011</v>
+        <v>0.4663552395479172</v>
       </c>
     </row>
     <row r="97" spans="1:105">
